--- a/data/trans_orig/RUIDO_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB93DBF7-25AD-41FD-9BF1-7593970304B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2080CBDD-2814-4423-9FB2-FDE646D857ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{41ADB62D-67A2-44F9-A422-22F0445BD81A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F0921A38-247A-41B6-992C-E2BB0261E149}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="365">
   <si>
     <t>Población según los motivos por los que no pagaría para realizar actuaciones que reduzcan el ruido en su municipio o lugar de residencia en 2023 (Tasa respuesta: 39,63%)</t>
   </si>
@@ -65,952 +65,1069 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Otro motivo</t>
   </si>
   <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
   </si>
   <si>
     <t>No puedo permitírmelo (económicamente)</t>
   </si>
   <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
   </si>
   <si>
     <t>Ya pago demasiados impuestos</t>
   </si>
   <si>
-    <t>19,17%</t>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>No me siento responsable del ruido</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>10,25%</t>
   </si>
   <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
     <t>30,09%</t>
   </si>
   <si>
-    <t>20,23%</t>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>No me siento responsable del ruido</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1425,8 +1542,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80932EE-7F4C-4257-8708-33B36FBE2F03}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B812A1-FF13-41C0-ACE2-3FE101B55638}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1546,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>37201</v>
+        <v>44720</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1561,7 +1678,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>13816</v>
+        <v>12753</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1576,7 +1693,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>51016</v>
+        <v>57473</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1597,7 +1714,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>37429</v>
+        <v>35698</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1612,7 +1729,7 @@
         <v>33</v>
       </c>
       <c r="I5" s="7">
-        <v>55194</v>
+        <v>48605</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1627,7 +1744,7 @@
         <v>49</v>
       </c>
       <c r="N5" s="7">
-        <v>92623</v>
+        <v>84303</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1648,7 +1765,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>24551</v>
+        <v>25446</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1663,7 +1780,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>25327</v>
+        <v>23223</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1678,7 +1795,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="7">
-        <v>49878</v>
+        <v>48669</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1699,7 +1816,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>18643</v>
+        <v>14983</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1714,7 +1831,7 @@
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>12616</v>
+        <v>10283</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1729,7 +1846,7 @@
         <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>31260</v>
+        <v>25266</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1750,7 +1867,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>10238</v>
+        <v>9996</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1765,31 +1882,31 @@
         <v>11</v>
       </c>
       <c r="I8" s="7">
-        <v>18224</v>
+        <v>14231</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
       </c>
       <c r="N8" s="7">
-        <v>28462</v>
+        <v>24227</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,51 +1918,51 @@
         <v>57</v>
       </c>
       <c r="D9" s="7">
-        <v>128062</v>
+        <v>130843</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>73</v>
       </c>
       <c r="I9" s="7">
-        <v>125176</v>
+        <v>109095</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>130</v>
       </c>
       <c r="N9" s="7">
-        <v>253238</v>
+        <v>239938</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1854,46 +1971,46 @@
         <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>12976</v>
+        <v>13052</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>16923</v>
+        <v>15644</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>29899</v>
+        <v>28696</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,46 +2022,46 @@
         <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>21332</v>
+        <v>21244</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
       </c>
       <c r="I11" s="7">
-        <v>30893</v>
+        <v>29045</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
       </c>
       <c r="N11" s="7">
-        <v>52226</v>
+        <v>50289</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,46 +2073,46 @@
         <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>49638</v>
+        <v>50928</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>59</v>
       </c>
       <c r="I12" s="7">
-        <v>63768</v>
+        <v>58740</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>94</v>
       </c>
       <c r="N12" s="7">
-        <v>113406</v>
+        <v>109668</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,10 +2124,10 @@
         <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>28719</v>
+        <v>28043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>89</v>
@@ -2022,7 +2139,7 @@
         <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>29445</v>
+        <v>25079</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>91</v>
@@ -2037,7 +2154,7 @@
         <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>58164</v>
+        <v>53121</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>94</v>
@@ -2058,7 +2175,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>19183</v>
+        <v>18441</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>97</v>
@@ -2073,7 +2190,7 @@
         <v>26</v>
       </c>
       <c r="I14" s="7">
-        <v>28468</v>
+        <v>24150</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>100</v>
@@ -2088,7 +2205,7 @@
         <v>38</v>
       </c>
       <c r="N14" s="7">
-        <v>47651</v>
+        <v>42591</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>103</v>
@@ -2109,46 +2226,46 @@
         <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>131848</v>
+        <v>131707</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>160</v>
       </c>
       <c r="I15" s="7">
-        <v>169497</v>
+        <v>152658</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>252</v>
       </c>
       <c r="N15" s="7">
-        <v>301345</v>
+        <v>284365</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,7 +2279,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>12264</v>
+        <v>11999</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
@@ -2177,7 +2294,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>15916</v>
+        <v>15008</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>110</v>
@@ -2192,7 +2309,7 @@
         <v>32</v>
       </c>
       <c r="N16" s="7">
-        <v>28181</v>
+        <v>27007</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -2213,7 +2330,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="7">
-        <v>45391</v>
+        <v>44537</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>116</v>
@@ -2228,7 +2345,7 @@
         <v>78</v>
       </c>
       <c r="I17" s="7">
-        <v>46479</v>
+        <v>44039</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>119</v>
@@ -2243,7 +2360,7 @@
         <v>130</v>
       </c>
       <c r="N17" s="7">
-        <v>91870</v>
+        <v>88576</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>122</v>
@@ -2264,7 +2381,7 @@
         <v>97</v>
       </c>
       <c r="D18" s="7">
-        <v>107708</v>
+        <v>103595</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>125</v>
@@ -2279,7 +2396,7 @@
         <v>128</v>
       </c>
       <c r="I18" s="7">
-        <v>85624</v>
+        <v>80336</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>128</v>
@@ -2294,7 +2411,7 @@
         <v>225</v>
       </c>
       <c r="N18" s="7">
-        <v>193331</v>
+        <v>183932</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>131</v>
@@ -2315,7 +2432,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="7">
-        <v>32268</v>
+        <v>30055</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>134</v>
@@ -2330,31 +2447,31 @@
         <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>30929</v>
+        <v>27199</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
       </c>
       <c r="N19" s="7">
-        <v>63197</v>
+        <v>57255</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,37 +2483,37 @@
         <v>26</v>
       </c>
       <c r="D20" s="7">
-        <v>27134</v>
+        <v>25708</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
       </c>
       <c r="I20" s="7">
-        <v>24210</v>
+        <v>22329</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="M20" s="7">
         <v>60</v>
       </c>
       <c r="N20" s="7">
-        <v>51344</v>
+        <v>48037</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>148</v>
@@ -2405,7 +2522,7 @@
         <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,51 +2534,51 @@
         <v>217</v>
       </c>
       <c r="D21" s="7">
-        <v>224766</v>
+        <v>215894</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
       </c>
       <c r="I21" s="7">
-        <v>203157</v>
+        <v>188912</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>516</v>
       </c>
       <c r="N21" s="7">
-        <v>427923</v>
+        <v>404807</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2470,46 +2587,46 @@
         <v>16</v>
       </c>
       <c r="D22" s="7">
-        <v>21240</v>
+        <v>20521</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
       </c>
       <c r="I22" s="7">
-        <v>26761</v>
+        <v>25061</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>56</v>
       </c>
       <c r="N22" s="7">
-        <v>48001</v>
+        <v>45582</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,13 +2638,13 @@
         <v>57</v>
       </c>
       <c r="D23" s="7">
-        <v>55917</v>
+        <v>53467</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>162</v>
@@ -2536,7 +2653,7 @@
         <v>84</v>
       </c>
       <c r="I23" s="7">
-        <v>50000</v>
+        <v>47205</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>163</v>
@@ -2551,7 +2668,7 @@
         <v>141</v>
       </c>
       <c r="N23" s="7">
-        <v>105917</v>
+        <v>100672</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>166</v>
@@ -2572,7 +2689,7 @@
         <v>117</v>
       </c>
       <c r="D24" s="7">
-        <v>117750</v>
+        <v>118051</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>169</v>
@@ -2587,7 +2704,7 @@
         <v>166</v>
       </c>
       <c r="I24" s="7">
-        <v>103304</v>
+        <v>96636</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>172</v>
@@ -2602,7 +2719,7 @@
         <v>283</v>
       </c>
       <c r="N24" s="7">
-        <v>221054</v>
+        <v>214687</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>175</v>
@@ -2623,7 +2740,7 @@
         <v>36</v>
       </c>
       <c r="D25" s="7">
-        <v>39247</v>
+        <v>35501</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>178</v>
@@ -2638,7 +2755,7 @@
         <v>74</v>
       </c>
       <c r="I25" s="7">
-        <v>51411</v>
+        <v>46172</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>181</v>
@@ -2653,7 +2770,7 @@
         <v>110</v>
       </c>
       <c r="N25" s="7">
-        <v>90659</v>
+        <v>81673</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>184</v>
@@ -2674,7 +2791,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="7">
-        <v>21228</v>
+        <v>19316</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>187</v>
@@ -2689,31 +2806,31 @@
         <v>65</v>
       </c>
       <c r="I26" s="7">
-        <v>42979</v>
+        <v>38961</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>87</v>
       </c>
       <c r="N26" s="7">
-        <v>64207</v>
+        <v>58277</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,51 +2842,51 @@
         <v>248</v>
       </c>
       <c r="D27" s="7">
-        <v>255382</v>
+        <v>246856</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>429</v>
       </c>
       <c r="I27" s="7">
-        <v>274455</v>
+        <v>254034</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>677</v>
       </c>
       <c r="N27" s="7">
-        <v>529837</v>
+        <v>500890</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2778,22 +2895,22 @@
         <v>14</v>
       </c>
       <c r="D28" s="7">
-        <v>15291</v>
+        <v>14402</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
       </c>
       <c r="I28" s="7">
-        <v>18535</v>
+        <v>17315</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>199</v>
@@ -2808,7 +2925,7 @@
         <v>45</v>
       </c>
       <c r="N28" s="7">
-        <v>33826</v>
+        <v>31718</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>202</v>
@@ -2817,7 +2934,7 @@
         <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,22 +2946,22 @@
         <v>75</v>
       </c>
       <c r="D29" s="7">
-        <v>65384</v>
+        <v>62184</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>90</v>
       </c>
       <c r="H29" s="7">
         <v>121</v>
       </c>
       <c r="I29" s="7">
-        <v>72530</v>
+        <v>67614</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>207</v>
@@ -2859,16 +2976,16 @@
         <v>196</v>
       </c>
       <c r="N29" s="7">
-        <v>137914</v>
+        <v>129798</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,25 +2997,25 @@
         <v>112</v>
       </c>
       <c r="D30" s="7">
-        <v>97891</v>
+        <v>93710</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>148</v>
       </c>
       <c r="I30" s="7">
-        <v>84960</v>
+        <v>78355</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>216</v>
@@ -2910,7 +3027,7 @@
         <v>260</v>
       </c>
       <c r="N30" s="7">
-        <v>182851</v>
+        <v>172065</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>218</v>
@@ -2931,46 +3048,46 @@
         <v>43</v>
       </c>
       <c r="D31" s="7">
-        <v>40657</v>
+        <v>35740</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>43</v>
       </c>
       <c r="I31" s="7">
-        <v>28684</v>
+        <v>25131</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>86</v>
       </c>
       <c r="N31" s="7">
-        <v>69341</v>
+        <v>60871</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,46 +3099,46 @@
         <v>46</v>
       </c>
       <c r="D32" s="7">
-        <v>39117</v>
+        <v>36502</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>66</v>
       </c>
       <c r="I32" s="7">
-        <v>39885</v>
+        <v>36256</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>112</v>
       </c>
       <c r="N32" s="7">
-        <v>79002</v>
+        <v>72758</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,99 +3150,99 @@
         <v>290</v>
       </c>
       <c r="D33" s="7">
-        <v>258340</v>
+        <v>242539</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>409</v>
       </c>
       <c r="I33" s="7">
-        <v>244594</v>
+        <v>224671</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>699</v>
       </c>
       <c r="N33" s="7">
-        <v>502934</v>
+        <v>467210</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D34" s="7">
-        <v>24967</v>
+        <v>9653</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>39</v>
+      </c>
+      <c r="I34" s="7">
+        <v>18880</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H34" s="7">
-        <v>72</v>
-      </c>
-      <c r="I34" s="7">
-        <v>38875</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>53</v>
+      </c>
+      <c r="N34" s="7">
+        <v>28533</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M34" s="7">
-        <v>106</v>
-      </c>
-      <c r="N34" s="7">
-        <v>63842</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,49 +3251,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="D35" s="7">
-        <v>70045</v>
+        <v>32045</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="H35" s="7">
+        <v>112</v>
+      </c>
+      <c r="I35" s="7">
+        <v>258201</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H35" s="7">
-        <v>322</v>
-      </c>
-      <c r="I35" s="7">
-        <v>276689</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>161</v>
+      </c>
+      <c r="N35" s="7">
+        <v>290246</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="M35" s="7">
-        <v>430</v>
-      </c>
-      <c r="N35" s="7">
-        <v>346734</v>
-      </c>
-      <c r="O35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,49 +3302,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="D36" s="7">
-        <v>102917</v>
+        <v>59756</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>100</v>
+      </c>
+      <c r="I36" s="7">
+        <v>48269</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="H36" s="7">
-        <v>191</v>
-      </c>
-      <c r="I36" s="7">
-        <v>102319</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>192</v>
+      </c>
+      <c r="N36" s="7">
+        <v>108025</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="M36" s="7">
-        <v>341</v>
-      </c>
-      <c r="N36" s="7">
-        <v>205237</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,49 +3353,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D37" s="7">
-        <v>44768</v>
+        <v>25188</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>38</v>
+      </c>
+      <c r="I37" s="7">
+        <v>19660</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H37" s="7">
-        <v>77</v>
-      </c>
-      <c r="I37" s="7">
-        <v>45441</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>79</v>
+      </c>
+      <c r="N37" s="7">
+        <v>44847</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="M37" s="7">
-        <v>141</v>
-      </c>
-      <c r="N37" s="7">
-        <v>90208</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,49 +3404,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D38" s="7">
-        <v>50568</v>
+        <v>27206</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H38" s="7">
+        <v>49</v>
+      </c>
+      <c r="I38" s="7">
+        <v>24016</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H38" s="7">
-        <v>97</v>
-      </c>
-      <c r="I38" s="7">
-        <v>51225</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>92</v>
+      </c>
+      <c r="N38" s="7">
+        <v>51222</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="M38" s="7">
-        <v>173</v>
-      </c>
-      <c r="N38" s="7">
-        <v>101793</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>283</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,102 +3455,102 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>432</v>
+        <v>239</v>
       </c>
       <c r="D39" s="7">
-        <v>293264</v>
+        <v>153849</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>759</v>
+        <v>338</v>
       </c>
       <c r="I39" s="7">
-        <v>514549</v>
+        <v>369025</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1191</v>
+        <v>577</v>
       </c>
       <c r="N39" s="7">
-        <v>807814</v>
+        <v>522873</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="D40" s="7">
-        <v>123938</v>
+        <v>14107</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="H40" s="7">
+        <v>33</v>
+      </c>
+      <c r="I40" s="7">
+        <v>16880</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H40" s="7">
-        <v>186</v>
-      </c>
-      <c r="I40" s="7">
-        <v>130826</v>
-      </c>
-      <c r="J40" s="7" t="s">
+      <c r="M40" s="7">
+        <v>53</v>
+      </c>
+      <c r="N40" s="7">
+        <v>30987</v>
+      </c>
+      <c r="O40" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="P40" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="M40" s="7">
-        <v>279</v>
-      </c>
-      <c r="N40" s="7">
-        <v>254764</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,49 +3559,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>328</v>
+        <v>59</v>
       </c>
       <c r="D41" s="7">
-        <v>295499</v>
+        <v>34168</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>186</v>
+        <v>291</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H41" s="7">
+        <v>210</v>
+      </c>
+      <c r="I41" s="7">
+        <v>98298</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="H41" s="7">
-        <v>674</v>
-      </c>
-      <c r="I41" s="7">
-        <v>531785</v>
-      </c>
-      <c r="J41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="M41" s="7">
+        <v>269</v>
+      </c>
+      <c r="N41" s="7">
+        <v>132466</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="M41" s="7">
-        <v>1002</v>
-      </c>
-      <c r="N41" s="7">
-        <v>827284</v>
-      </c>
-      <c r="O41" s="7" t="s">
+      <c r="P41" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,49 +3610,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>526</v>
+        <v>58</v>
       </c>
       <c r="D42" s="7">
-        <v>500455</v>
+        <v>36891</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="H42" s="7">
+        <v>91</v>
+      </c>
+      <c r="I42" s="7">
+        <v>45176</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H42" s="7">
-        <v>707</v>
-      </c>
-      <c r="I42" s="7">
-        <v>465302</v>
-      </c>
-      <c r="J42" s="7" t="s">
+      <c r="K42" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="M42" s="7">
+        <v>149</v>
+      </c>
+      <c r="N42" s="7">
+        <v>82067</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="M42" s="7">
-        <v>1233</v>
-      </c>
-      <c r="N42" s="7">
-        <v>965757</v>
-      </c>
-      <c r="O42" s="7" t="s">
+      <c r="P42" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,49 +3661,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="D43" s="7">
-        <v>204302</v>
+        <v>14919</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7">
+        <v>39</v>
+      </c>
+      <c r="I43" s="7">
+        <v>20052</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="H43" s="7">
-        <v>263</v>
-      </c>
-      <c r="I43" s="7">
-        <v>198526</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M43" s="7">
+        <v>62</v>
+      </c>
+      <c r="N43" s="7">
+        <v>34972</v>
+      </c>
+      <c r="O43" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="P43" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="M43" s="7">
-        <v>464</v>
-      </c>
-      <c r="N43" s="7">
-        <v>402828</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,10 +3712,10 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="D44" s="7">
-        <v>167468</v>
+        <v>19878</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>316</v>
@@ -3610,34 +3727,34 @@
         <v>318</v>
       </c>
       <c r="H44" s="7">
-        <v>299</v>
+        <v>48</v>
       </c>
       <c r="I44" s="7">
-        <v>204991</v>
+        <v>22214</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>319</v>
       </c>
       <c r="K44" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="M44" s="7">
+        <v>81</v>
+      </c>
+      <c r="N44" s="7">
+        <v>42091</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="M44" s="7">
-        <v>487</v>
-      </c>
-      <c r="N44" s="7">
-        <v>372459</v>
-      </c>
-      <c r="O44" s="7" t="s">
+      <c r="P44" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,63 +3763,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>193</v>
+      </c>
+      <c r="D45" s="7">
+        <v>119963</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>421</v>
+      </c>
+      <c r="I45" s="7">
+        <v>202620</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>614</v>
+      </c>
+      <c r="N45" s="7">
+        <v>322582</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>93</v>
+      </c>
+      <c r="D46" s="7">
+        <v>128454</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H46" s="7">
+        <v>186</v>
+      </c>
+      <c r="I46" s="7">
+        <v>121541</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M46" s="7">
+        <v>279</v>
+      </c>
+      <c r="N46" s="7">
+        <v>249995</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>328</v>
+      </c>
+      <c r="D47" s="7">
+        <v>283343</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H47" s="7">
+        <v>674</v>
+      </c>
+      <c r="I47" s="7">
+        <v>593006</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="M47" s="7">
+        <v>1002</v>
+      </c>
+      <c r="N47" s="7">
+        <v>876349</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>526</v>
+      </c>
+      <c r="D48" s="7">
+        <v>488377</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H48" s="7">
+        <v>707</v>
+      </c>
+      <c r="I48" s="7">
+        <v>430735</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1233</v>
+      </c>
+      <c r="N48" s="7">
+        <v>919112</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>201</v>
+      </c>
+      <c r="D49" s="7">
+        <v>184430</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H49" s="7">
+        <v>263</v>
+      </c>
+      <c r="I49" s="7">
+        <v>173576</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="M49" s="7">
+        <v>464</v>
+      </c>
+      <c r="N49" s="7">
+        <v>358005</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>188</v>
+      </c>
+      <c r="D50" s="7">
+        <v>157048</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H50" s="7">
+        <v>299</v>
+      </c>
+      <c r="I50" s="7">
+        <v>182156</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M50" s="7">
+        <v>487</v>
+      </c>
+      <c r="N50" s="7">
+        <v>339203</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1336</v>
       </c>
-      <c r="D45" s="7">
-        <v>1291663</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>1241651</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>2129</v>
       </c>
-      <c r="I45" s="7">
-        <v>1531429</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>1501014</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>3465</v>
       </c>
-      <c r="N45" s="7">
-        <v>2823092</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>325</v>
+      <c r="N51" s="7">
+        <v>2742665</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
